--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -622,10 +634,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -669,28 +681,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -715,28 +727,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1126,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1161,28 +1173,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1219,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1548,10 +1560,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1595,28 +1607,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1641,28 +1653,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2040,10 +2052,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2087,28 +2099,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2133,28 +2145,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2416,10 +2428,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2463,28 +2475,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2509,28 +2521,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2908,10 +2920,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2955,28 +2967,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3001,28 +3013,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3342,10 +3354,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3389,28 +3401,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3435,28 +3447,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3689,10 +3701,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3736,28 +3748,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3782,28 +3794,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4135,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4170,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4228,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4412,10 +4424,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4459,28 +4471,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4505,28 +4517,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
